--- a/Assets/StreamingAssets/Data/command_id.xlsx
+++ b/Assets/StreamingAssets/Data/command_id.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work-Hexmap\hexmap-democlient\Assets\StreamingAssets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDCC355F-270B-4EF6-94DA-58D9D8268EEE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCA9D2A0-B1A3-424C-8553-191957159505}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="50">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -202,6 +202,10 @@
   </si>
   <si>
     <t>CmdAbandonBuilding</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Remark</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -530,7 +534,7 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -552,6 +556,9 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
+      <c r="B2" t="s">
+        <v>49</v>
+      </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
@@ -911,5 +918,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Assets/StreamingAssets/Data/command_id.xlsx
+++ b/Assets/StreamingAssets/Data/command_id.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work-Hexmap\hexmap-democlient\Assets\StreamingAssets\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work-hexmap\hexmap-democlient\Assets\StreamingAssets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCA9D2A0-B1A3-424C-8553-191957159505}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C32E60DD-E8D7-4AE2-B1E3-6545AAC91310}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,10 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="50">
   <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>说明</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -39,26 +35,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>order</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Script</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>icon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tip</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>解散</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -206,6 +186,26 @@
   </si>
   <si>
     <t>Remark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Order</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -534,385 +534,385 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
       <c r="D2" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="F2" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="G2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1001</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D3">
         <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1002</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D4">
         <v>198</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1003</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D5">
         <v>197</v>
       </c>
       <c r="E5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2001</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D6">
         <v>21</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2002</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D7">
         <v>22</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2003</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D8">
         <v>23</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2004</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D9">
         <v>24</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2005</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D10">
         <v>25</v>
       </c>
       <c r="E10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2006</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D11">
         <v>26</v>
       </c>
       <c r="E11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>3001</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D12">
         <v>31</v>
       </c>
       <c r="E12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>3002</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D13">
         <v>32</v>
       </c>
       <c r="E13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>3003</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D14">
         <v>33</v>
       </c>
       <c r="E14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>3004</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D15">
         <v>34</v>
       </c>
       <c r="E15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>3005</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D16">
         <v>35</v>
       </c>
       <c r="E16" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>3010</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D17">
         <v>199</v>
       </c>
       <c r="E17" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>5001</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D18">
         <v>51</v>
       </c>
       <c r="E18" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>5002</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D19">
         <v>52</v>
       </c>
       <c r="E19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>5003</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D20">
         <v>53</v>
       </c>
       <c r="E20" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>5004</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D21">
         <v>54</v>
       </c>
       <c r="E21" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>5005</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D22">
         <v>55</v>
       </c>
       <c r="E22" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/StreamingAssets/Data/command_id.xlsx
+++ b/Assets/StreamingAssets/Data/command_id.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work-hexmap\hexmap-democlient\Assets\StreamingAssets\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work-Hexmap\hexmap-democlient\Assets\StreamingAssets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C32E60DD-E8D7-4AE2-B1E3-6545AAC91310}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EBEBA8A-8D70-4BD8-9908-AD0813F82AB6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="28800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="52">
   <si>
     <t>说明</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -149,30 +149,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DismissTroop</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>March</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Attack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Guard</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RapidMarch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Charge</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>废弃建筑</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -206,6 +182,37 @@
   </si>
   <si>
     <t>Id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>停止</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CmdDismissTroop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CmdMarch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CmdAttack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CmdGuard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CmdRapidMarch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CmdCharge</t>
+  </si>
+  <si>
+    <t>CmdHalt</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -531,20 +538,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -552,30 +559,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1001</v>
       </c>
@@ -592,7 +599,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1002</v>
       </c>
@@ -609,24 +616,24 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1003</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D5">
         <v>197</v>
       </c>
       <c r="E5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2001</v>
       </c>
@@ -643,7 +650,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2002</v>
       </c>
@@ -660,7 +667,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2003</v>
       </c>
@@ -677,7 +684,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2004</v>
       </c>
@@ -694,7 +701,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2005</v>
       </c>
@@ -711,7 +718,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2006</v>
       </c>
@@ -728,7 +735,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>3001</v>
       </c>
@@ -745,7 +752,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>3002</v>
       </c>
@@ -762,7 +769,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>3003</v>
       </c>
@@ -779,7 +786,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>3004</v>
       </c>
@@ -796,7 +803,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>3005</v>
       </c>
@@ -813,7 +820,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>3010</v>
       </c>
@@ -821,7 +828,7 @@
         <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="D17">
         <v>199</v>
@@ -830,7 +837,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>5001</v>
       </c>
@@ -838,7 +845,7 @@
         <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="D18">
         <v>51</v>
@@ -847,7 +854,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>5002</v>
       </c>
@@ -855,7 +862,7 @@
         <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="D19">
         <v>52</v>
@@ -864,7 +871,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>5003</v>
       </c>
@@ -872,7 +879,7 @@
         <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="D20">
         <v>53</v>
@@ -881,7 +888,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>5004</v>
       </c>
@@ -889,7 +896,7 @@
         <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="D21">
         <v>54</v>
@@ -898,7 +905,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>5005</v>
       </c>
@@ -906,13 +913,30 @@
         <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D22">
         <v>55</v>
       </c>
       <c r="E22" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>5006</v>
+      </c>
+      <c r="B23" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23">
+        <v>56</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/StreamingAssets/Data/command_id.xlsx
+++ b/Assets/StreamingAssets/Data/command_id.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work-Hexmap\hexmap-democlient\Assets\StreamingAssets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EBEBA8A-8D70-4BD8-9908-AD0813F82AB6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8EBD7ED-4BE4-49B6-8FCA-85222A2B1F45}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="28800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="65">
   <si>
     <t>说明</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -43,176 +43,229 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>废弃城市</t>
+  </si>
+  <si>
+    <t>生产农民</t>
+  </si>
+  <si>
+    <t>生产开拓者</t>
+  </si>
+  <si>
+    <t>生产刀兵</t>
+  </si>
+  <si>
+    <t>生产长枪兵</t>
+  </si>
+  <si>
+    <t>生产弓箭手</t>
+  </si>
+  <si>
+    <t>生产骑兵</t>
+  </si>
+  <si>
+    <t>伐木</t>
+  </si>
+  <si>
+    <t>收割</t>
+  </si>
+  <si>
+    <t>采矿</t>
+  </si>
+  <si>
+    <t>修路</t>
+  </si>
+  <si>
+    <t>搭桥</t>
+  </si>
+  <si>
+    <t>行军</t>
+  </si>
+  <si>
+    <t>进攻</t>
+  </si>
+  <si>
+    <t>驻守</t>
+  </si>
+  <si>
+    <t>急行军</t>
+  </si>
+  <si>
+    <t>冲锋</t>
+  </si>
+  <si>
+    <t>CmdBuildCity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CmdAbandonCity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CmdLumberJack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CmdCreateFarmer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CmdCreateSettler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CmdCreateSoldier1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CmdCreateSoldier2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CmdCreateSoldier3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CmdCreateSoldier4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CmdHarvest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CmdMining</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CmdBuildRoad</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CmdBuildBridge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>废弃建筑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>废弃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CmdAbandonBuilding</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Remark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Order</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>停止</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CmdDismissTroop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CmdMarch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CmdAttack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CmdGuard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CmdRapidMarch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CmdCharge</t>
+  </si>
+  <si>
+    <t>CmdHalt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>建造城市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产农民</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionPointCost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行动点消耗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>废弃城市</t>
-  </si>
-  <si>
-    <t>生产农民</t>
-  </si>
-  <si>
-    <t>生产开拓者</t>
-  </si>
-  <si>
-    <t>生产刀兵</t>
-  </si>
-  <si>
-    <t>生产长枪兵</t>
-  </si>
-  <si>
-    <t>生产弓箭手</t>
-  </si>
-  <si>
-    <t>生产骑兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>伐木</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>收割</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>采矿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>修路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>搭桥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>行军</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>进攻</t>
-  </si>
-  <si>
-    <t>驻守</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>急行军</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>冲锋</t>
-  </si>
-  <si>
-    <t>CmdBuildCity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CmdAbandonCity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CmdLumberJack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CmdCreateFarmer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CmdCreateSettler</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CmdCreateSoldier1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CmdCreateSoldier2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CmdCreateSoldier3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CmdCreateSoldier4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CmdHarvest</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CmdMining</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CmdBuildRoad</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CmdBuildBridge</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>废弃建筑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>废弃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CmdAbandonBuilding</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Remark</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Order</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Icon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tip</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>停止</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CmdDismissTroop</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CmdMarch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CmdAttack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CmdGuard</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CmdRapidMarch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CmdCharge</t>
-  </si>
-  <si>
-    <t>CmdHalt</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -538,10 +591,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -551,276 +604,303 @@
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
       </c>
       <c r="D2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" t="s">
         <v>39</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>40</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>41</v>
       </c>
-      <c r="G2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1001</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3">
         <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+      <c r="H3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1002</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D4">
         <v>198</v>
       </c>
       <c r="E4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1003</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D5">
         <v>197</v>
       </c>
       <c r="E5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2001</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6">
         <v>21</v>
       </c>
       <c r="E6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2002</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7">
         <v>22</v>
       </c>
       <c r="E7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2003</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8">
         <v>23</v>
       </c>
       <c r="E8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2004</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D9">
         <v>24</v>
       </c>
       <c r="E9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2005</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D10">
         <v>25</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2006</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11">
         <v>26</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>3001</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D12">
         <v>31</v>
       </c>
       <c r="E12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>3002</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D13">
         <v>32</v>
       </c>
       <c r="E13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>3003</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D14">
         <v>33</v>
       </c>
       <c r="E14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>3004</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D15">
         <v>34</v>
       </c>
       <c r="E15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>3005</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D16">
         <v>35</v>
       </c>
       <c r="E16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>3010</v>
       </c>
@@ -828,7 +908,7 @@
         <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D17">
         <v>199</v>
@@ -837,106 +917,118 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>5001</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D18">
         <v>51</v>
       </c>
       <c r="E18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>5002</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D19">
         <v>52</v>
       </c>
       <c r="E19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+      <c r="H19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>5003</v>
       </c>
       <c r="B20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D20">
         <v>53</v>
       </c>
       <c r="E20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>5004</v>
       </c>
       <c r="B21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D21">
         <v>54</v>
       </c>
       <c r="E21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+      <c r="H21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>5005</v>
       </c>
       <c r="B22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D22">
         <v>55</v>
       </c>
       <c r="E22" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+      <c r="H22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>5006</v>
       </c>
       <c r="B23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D23">
         <v>56</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
